--- a/O2S MedicalRecord/Documents/BIEN_BC_O2S_MedicalRecord.xlsx
+++ b/O2S MedicalRecord/Documents/BIEN_BC_O2S_MedicalRecord.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12615" windowHeight="7020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12615" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="MergeField" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="403">
   <si>
     <t>SOYTE</t>
   </si>
@@ -1213,13 +1213,34 @@
   </si>
   <si>
     <t>... giờ ....... phút   ngày ..... tháng ..... năm ...</t>
+  </si>
+  <si>
+    <t>VVIEN_DATE</t>
+  </si>
+  <si>
+    <t>TG BN vào viện khoa đầu tiên (điều trị ngoại trú từ)</t>
+  </si>
+  <si>
+    <t>..../...../......</t>
+  </si>
+  <si>
+    <t>RVIEN_DATE</t>
+  </si>
+  <si>
+    <t>Thời gian ra viện - dạng date</t>
+  </si>
+  <si>
+    <t>...../...../.....</t>
+  </si>
+  <si>
+    <t>Thời gian ra viện - date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1299,6 +1320,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1373,7 +1400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1412,16 +1439,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1434,11 +1452,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1449,10 +1471,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1734,10 +1769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EG5"/>
+  <dimension ref="A1:EI5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="BR1" workbookViewId="0">
+      <selection activeCell="BY3" sqref="BY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1747,7 +1782,7 @@
     <col min="27" max="16384" width="13.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:137" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:139" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>128</v>
       </c>
@@ -1923,244 +1958,250 @@
         <v>58</v>
       </c>
       <c r="BG1" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="BH1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BK1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BL1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BM1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BN1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="BN1" s="5" t="s">
+      <c r="BO1" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="BP1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="BP1" s="5" t="s">
+      <c r="BQ1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="BQ1" s="5" t="s">
+      <c r="BR1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="BR1" s="5" t="s">
+      <c r="BS1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="BS1" s="5" t="s">
+      <c r="BT1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="BT1" s="5" t="s">
+      <c r="BU1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="BU1" s="5" t="s">
+      <c r="BV1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="BV1" s="5" t="s">
+      <c r="BW1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="BW1" s="5" t="s">
+      <c r="BX1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="BX1" s="5" t="s">
+      <c r="BY1" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="BZ1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="BY1" s="5" t="s">
+      <c r="CA1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="BZ1" s="5" t="s">
+      <c r="CB1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="CA1" s="5" t="s">
+      <c r="CC1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="CB1" s="5" t="s">
+      <c r="CD1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="CC1" s="5" t="s">
+      <c r="CE1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="CD1" s="5" t="s">
+      <c r="CF1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="CE1" s="5" t="s">
+      <c r="CG1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="CF1" s="5" t="s">
+      <c r="CH1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="CG1" s="5" t="s">
+      <c r="CI1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="CH1" s="5" t="s">
+      <c r="CJ1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="CI1" s="5" t="s">
+      <c r="CK1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="CJ1" s="5" t="s">
+      <c r="CL1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="CK1" s="5" t="s">
+      <c r="CM1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="CL1" s="5" t="s">
+      <c r="CN1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="CM1" s="5" t="s">
+      <c r="CO1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="CN1" s="5" t="s">
+      <c r="CP1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="CO1" s="5" t="s">
+      <c r="CQ1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="CP1" s="5" t="s">
+      <c r="CR1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="CQ1" s="5" t="s">
+      <c r="CS1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="CR1" s="5" t="s">
+      <c r="CT1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="CS1" s="5" t="s">
+      <c r="CU1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="CT1" s="5" t="s">
+      <c r="CV1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="CU1" s="5" t="s">
+      <c r="CW1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="CV1" s="5" t="s">
+      <c r="CX1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="CW1" s="5" t="s">
+      <c r="CY1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="CX1" s="5" t="s">
+      <c r="CZ1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="CY1" s="5" t="s">
+      <c r="DA1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="CZ1" s="5" t="s">
+      <c r="DB1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="DA1" s="5" t="s">
+      <c r="DC1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="DB1" s="5" t="s">
+      <c r="DD1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="DC1" s="5" t="s">
+      <c r="DE1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="DD1" s="5" t="s">
+      <c r="DF1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="DE1" s="5" t="s">
+      <c r="DG1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="DF1" s="5" t="s">
+      <c r="DH1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="DG1" s="5" t="s">
+      <c r="DI1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="DH1" s="5" t="s">
+      <c r="DJ1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="DI1" s="5" t="s">
+      <c r="DK1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="DJ1" s="5" t="s">
+      <c r="DL1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="DK1" s="5" t="s">
+      <c r="DM1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="DL1" s="5" t="s">
+      <c r="DN1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="DM1" s="5" t="s">
+      <c r="DO1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="DN1" s="5" t="s">
+      <c r="DP1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="DO1" s="5" t="s">
+      <c r="DQ1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="DP1" s="5" t="s">
+      <c r="DR1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="DQ1" s="5" t="s">
+      <c r="DS1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="DR1" s="5" t="s">
+      <c r="DT1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="DS1" s="5" t="s">
+      <c r="DU1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="DT1" s="5" t="s">
+      <c r="DV1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="DU1" s="5" t="s">
+      <c r="DW1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="DV1" s="5" t="s">
+      <c r="DX1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="DW1" s="5" t="s">
+      <c r="DY1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="DX1" s="5" t="s">
+      <c r="DZ1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="DY1" s="5" t="s">
+      <c r="EA1" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="DZ1" s="5" t="s">
+      <c r="EB1" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="EA1" s="5" t="s">
+      <c r="EC1" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="EB1" s="5" t="s">
+      <c r="ED1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="EC1" s="5" t="s">
+      <c r="EE1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="ED1" s="5" t="s">
+      <c r="EF1" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="EE1" s="5" t="s">
+      <c r="EG1" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="EF1" s="5" t="s">
+      <c r="EH1" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="EG1" s="5" t="s">
+      <c r="EI1" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:137" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:139" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>134</v>
       </c>
@@ -2330,244 +2371,250 @@
         <v>200</v>
       </c>
       <c r="BG2" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="BH2" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="BH2" s="8" t="s">
+      <c r="BI2" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="BI2" s="8" t="s">
+      <c r="BJ2" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="BJ2" s="8" t="s">
+      <c r="BK2" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="BK2" s="8" t="s">
+      <c r="BL2" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="BL2" s="8" t="s">
+      <c r="BM2" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="BM2" s="8" t="s">
+      <c r="BN2" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="BN2" s="8" t="s">
+      <c r="BO2" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="BO2" s="8" t="s">
+      <c r="BP2" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="BP2" s="8" t="s">
+      <c r="BQ2" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="BQ2" s="8" t="s">
+      <c r="BR2" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="BR2" s="8" t="s">
+      <c r="BS2" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="BS2" s="8" t="s">
+      <c r="BT2" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="BT2" s="8" t="s">
+      <c r="BU2" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="BU2" s="8" t="s">
+      <c r="BV2" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="BV2" s="8" t="s">
+      <c r="BW2" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="BW2" s="8" t="s">
+      <c r="BX2" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="BX2" s="8" t="s">
+      <c r="BY2" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="BZ2" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="BY2" s="8" t="s">
+      <c r="CA2" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="BZ2" s="8" t="s">
+      <c r="CB2" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="CA2" s="8" t="s">
+      <c r="CC2" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="CB2" s="8" t="s">
+      <c r="CD2" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="CC2" s="8" t="s">
+      <c r="CE2" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="CD2" s="8" t="s">
+      <c r="CF2" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="CE2" s="8" t="s">
+      <c r="CG2" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="CF2" s="8" t="s">
+      <c r="CH2" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="CG2" s="8" t="s">
+      <c r="CI2" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="CH2" s="8" t="s">
+      <c r="CJ2" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="CI2" s="8" t="s">
+      <c r="CK2" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="CJ2" s="8" t="s">
+      <c r="CL2" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="CK2" s="8" t="s">
+      <c r="CM2" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="CL2" s="8" t="s">
+      <c r="CN2" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="CM2" s="8" t="s">
+      <c r="CO2" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="CN2" s="8" t="s">
+      <c r="CP2" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="CO2" s="8" t="s">
+      <c r="CQ2" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="CP2" s="8" t="s">
+      <c r="CR2" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="CQ2" s="8" t="s">
+      <c r="CS2" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="CR2" s="8" t="s">
+      <c r="CT2" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="CS2" s="8" t="s">
+      <c r="CU2" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="CT2" s="8" t="s">
+      <c r="CV2" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="CU2" s="8" t="s">
+      <c r="CW2" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="CV2" s="8" t="s">
+      <c r="CX2" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="CW2" s="8" t="s">
+      <c r="CY2" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="CX2" s="8" t="s">
+      <c r="CZ2" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="CY2" s="8" t="s">
+      <c r="DA2" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="CZ2" s="8" t="s">
+      <c r="DB2" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="DA2" s="8" t="s">
+      <c r="DC2" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="DB2" s="8" t="s">
+      <c r="DD2" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="DC2" s="8" t="s">
+      <c r="DE2" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="DD2" s="8" t="s">
+      <c r="DF2" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="DE2" s="8" t="s">
+      <c r="DG2" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="DF2" s="8" t="s">
+      <c r="DH2" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="DG2" s="8" t="s">
+      <c r="DI2" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="DH2" s="8" t="s">
+      <c r="DJ2" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="DI2" s="8" t="s">
+      <c r="DK2" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="DJ2" s="8" t="s">
+      <c r="DL2" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="DK2" s="8" t="s">
+      <c r="DM2" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="DL2" s="8" t="s">
+      <c r="DN2" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="DM2" s="8" t="s">
+      <c r="DO2" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="DN2" s="8" t="s">
+      <c r="DP2" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="DO2" s="8" t="s">
+      <c r="DQ2" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="DP2" s="8" t="s">
+      <c r="DR2" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="DQ2" s="8" t="s">
+      <c r="DS2" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="DR2" s="8" t="s">
+      <c r="DT2" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="DS2" s="8" t="s">
+      <c r="DU2" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="DT2" s="8" t="s">
+      <c r="DV2" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="DU2" s="8" t="s">
+      <c r="DW2" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="DV2" s="8" t="s">
+      <c r="DX2" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="DW2" s="8" t="s">
+      <c r="DY2" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="DX2" s="8" t="s">
+      <c r="DZ2" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="DY2" s="8" t="s">
+      <c r="EA2" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="DZ2" s="8" t="s">
+      <c r="EB2" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="EA2" s="8" t="s">
+      <c r="EC2" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="EB2" s="8" t="s">
+      <c r="ED2" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="EC2" s="8" t="s">
+      <c r="EE2" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="ED2" s="8" t="s">
+      <c r="EF2" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="EE2" s="8" t="s">
+      <c r="EG2" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="EF2" s="8" t="s">
+      <c r="EH2" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="EG2" s="8" t="s">
+      <c r="EI2" s="8" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:137" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:139" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
@@ -2647,7 +2694,7 @@
         <v>199</v>
       </c>
       <c r="BG3" s="11" t="s">
-        <v>165</v>
+        <v>398</v>
       </c>
       <c r="BH3" s="11" t="s">
         <v>165</v>
@@ -2664,32 +2711,32 @@
       <c r="BL3" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="BM3" s="11"/>
+      <c r="BM3" s="11" t="s">
+        <v>165</v>
+      </c>
       <c r="BN3" s="11"/>
       <c r="BO3" s="11"/>
-      <c r="BP3" s="14" t="s">
+      <c r="BP3" s="11"/>
+      <c r="BQ3" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="BQ3" s="11"/>
       <c r="BR3" s="11"/>
-      <c r="BS3" s="11" t="s">
-        <v>165</v>
-      </c>
+      <c r="BS3" s="11"/>
       <c r="BT3" s="11" t="s">
         <v>165</v>
       </c>
       <c r="BU3" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="BV3" s="11"/>
-      <c r="BW3" s="11" t="s">
+      <c r="BV3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BW3" s="11"/>
+      <c r="BX3" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="BX3" s="11" t="s">
-        <v>165</v>
-      </c>
       <c r="BY3" s="11" t="s">
-        <v>165</v>
+        <v>401</v>
       </c>
       <c r="BZ3" s="11" t="s">
         <v>165</v>
@@ -2697,8 +2744,12 @@
       <c r="CA3" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="CB3" s="11"/>
-      <c r="CC3" s="11"/>
+      <c r="CB3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC3" s="11" t="s">
+        <v>165</v>
+      </c>
       <c r="CD3" s="11"/>
       <c r="CE3" s="11"/>
       <c r="CF3" s="11"/>
@@ -2716,14 +2767,14 @@
       <c r="CR3" s="11"/>
       <c r="CS3" s="11"/>
       <c r="CT3" s="11"/>
-      <c r="CU3" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="CV3" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="CW3" s="11"/>
-      <c r="CX3" s="11"/>
+      <c r="CU3" s="11"/>
+      <c r="CV3" s="11"/>
+      <c r="CW3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CX3" s="11" t="s">
+        <v>165</v>
+      </c>
       <c r="CY3" s="11"/>
       <c r="CZ3" s="11"/>
       <c r="DA3" s="11"/>
@@ -2732,12 +2783,8 @@
       <c r="DD3" s="11"/>
       <c r="DE3" s="11"/>
       <c r="DF3" s="11"/>
-      <c r="DG3" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="DH3" s="11" t="s">
-        <v>165</v>
-      </c>
+      <c r="DG3" s="11"/>
+      <c r="DH3" s="11"/>
       <c r="DI3" s="11" t="s">
         <v>165</v>
       </c>
@@ -2763,14 +2810,14 @@
         <v>165</v>
       </c>
       <c r="DQ3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="DR3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="DS3" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="DR3" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS3" s="11" t="s">
-        <v>165</v>
-      </c>
       <c r="DT3" s="11" t="s">
         <v>165</v>
       </c>
@@ -2780,21 +2827,27 @@
       <c r="DV3" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="DW3" s="11"/>
-      <c r="DX3" s="11"/>
+      <c r="DW3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="DX3" s="11" t="s">
+        <v>165</v>
+      </c>
       <c r="DY3" s="11"/>
       <c r="DZ3" s="11"/>
       <c r="EA3" s="11"/>
-      <c r="EB3" s="11" t="s">
-        <v>165</v>
-      </c>
+      <c r="EB3" s="11"/>
       <c r="EC3" s="11"/>
-      <c r="ED3" s="11"/>
+      <c r="ED3" s="11" t="s">
+        <v>165</v>
+      </c>
       <c r="EE3" s="11"/>
       <c r="EF3" s="11"/>
       <c r="EG3" s="11"/>
-    </row>
-    <row r="4" spans="1:137" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="EH3" s="11"/>
+      <c r="EI3" s="11"/>
+    </row>
+    <row r="4" spans="1:139" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2932,8 +2985,10 @@
       <c r="EE4" s="3"/>
       <c r="EF4" s="3"/>
       <c r="EG4" s="3"/>
-    </row>
-    <row r="5" spans="1:137" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="EH4" s="3"/>
+      <c r="EI4" s="3"/>
+    </row>
+    <row r="5" spans="1:139" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3071,6 +3126,8 @@
       <c r="EE5" s="3"/>
       <c r="EF5" s="3"/>
       <c r="EG5" s="3"/>
+      <c r="EH5" s="3"/>
+      <c r="EI5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3080,152 +3137,152 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F354"/>
+  <dimension ref="A2:F356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.75" style="15" customWidth="1"/>
-    <col min="2" max="2" width="32" style="25" customWidth="1"/>
-    <col min="3" max="3" width="54.5" style="25" customWidth="1"/>
-    <col min="4" max="4" width="45.25" style="17" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="17" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="17"/>
+    <col min="2" max="2" width="32" style="21" customWidth="1"/>
+    <col min="3" max="3" width="54.5" style="21" customWidth="1"/>
+    <col min="4" max="4" width="45.25" style="16" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
     </row>
     <row r="6" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="18" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="A9" s="19">
         <v>1</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="20" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
+      <c r="A10" s="19">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="20" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="19">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="20" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+      <c r="A12" s="19">
         <v>4</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="20" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
+      <c r="A13" s="19">
         <v>5</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="20" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
+      <c r="A14" s="19">
         <v>6</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="20" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="19">
         <v>7</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="20" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
+      <c r="A16" s="19">
         <v>8</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="20" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="19">
         <v>9</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="20" t="s">
         <v>337</v>
       </c>
       <c r="C17" s="24" t="s">
@@ -3233,46 +3290,46 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="19">
         <v>10</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="20" t="s">
         <v>338</v>
       </c>
       <c r="C18" s="24"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="19">
         <v>11</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="20" t="s">
         <v>339</v>
       </c>
       <c r="C19" s="24"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
+      <c r="A20" s="19">
         <v>12</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="20" t="s">
         <v>340</v>
       </c>
       <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+      <c r="A21" s="19">
         <v>13</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="20" t="s">
         <v>341</v>
       </c>
       <c r="C21" s="24"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
+      <c r="A22" s="19">
         <v>14</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="20" t="s">
         <v>342</v>
       </c>
       <c r="C22" s="24" t="s">
@@ -3280,134 +3337,134 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
+      <c r="A23" s="19">
         <v>15</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="20" t="s">
         <v>343</v>
       </c>
       <c r="C23" s="24"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="22">
+      <c r="A24" s="19">
         <v>16</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="20" t="s">
         <v>344</v>
       </c>
       <c r="C24" s="24"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+      <c r="A25" s="19">
         <v>17</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="20" t="s">
         <v>345</v>
       </c>
       <c r="C25" s="24"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="22">
+      <c r="A26" s="19">
         <v>18</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="20" t="s">
         <v>346</v>
       </c>
       <c r="C26" s="24"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="22">
+      <c r="A27" s="19">
         <v>19</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="20" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
+      <c r="A28" s="19">
         <v>20</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="20" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="22">
+      <c r="A29" s="19">
         <v>21</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="20" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="22">
+      <c r="A30" s="19">
         <v>22</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="20" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="22">
+      <c r="A31" s="19">
         <v>23</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="20" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
+      <c r="A32" s="19">
         <v>24</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="20" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="22">
+      <c r="A33" s="19">
         <v>25</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="20" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="22">
+      <c r="A34" s="19">
         <v>26</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="20" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="22">
+      <c r="A35" s="19">
         <v>27</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="20" t="s">
         <v>355</v>
       </c>
       <c r="C35" s="24" t="s">
@@ -3415,2976 +3472,3004 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
+      <c r="A36" s="19">
         <v>28</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="20" t="s">
         <v>356</v>
       </c>
       <c r="C36" s="24"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="22">
+      <c r="A37" s="19">
         <v>29</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="20" t="s">
         <v>357</v>
       </c>
       <c r="C37" s="24"/>
     </row>
     <row r="40" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="23" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="18" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="22">
+      <c r="A43" s="19">
         <v>1</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="20" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="22">
+      <c r="A44" s="19">
         <v>2</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="20" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="22">
+      <c r="A45" s="19">
         <v>3</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="25" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="22">
+      <c r="A46" s="19">
         <v>4</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="C46" s="27"/>
+      <c r="C46" s="26"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="22">
+      <c r="A47" s="19">
         <v>5</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="C47" s="27"/>
+      <c r="C47" s="26"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="22">
+      <c r="A48" s="19">
         <v>6</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="C48" s="27"/>
+      <c r="C48" s="26"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="22">
+      <c r="A49" s="19">
         <v>7</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="C49" s="28"/>
+      <c r="C49" s="27"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="22">
+      <c r="A50" s="19">
         <v>8</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="20" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="22">
+      <c r="A51" s="19">
         <v>9</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="20" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="22">
+      <c r="A52" s="19">
         <v>10</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="20" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="22">
+      <c r="A53" s="19">
         <v>11</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="20" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="22">
+      <c r="A54" s="19">
         <v>12</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="20" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A55" s="22">
+      <c r="A55" s="19">
         <v>13</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="20" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="22">
+      <c r="A56" s="19">
         <v>14</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="20" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="22">
+      <c r="A57" s="19">
         <v>15</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="20" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="22">
+      <c r="A58" s="19">
         <v>16</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="20" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="22">
+      <c r="A59" s="19">
         <v>17</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="20" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="22">
+      <c r="A60" s="19">
         <v>18</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="20" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="22">
+      <c r="A61" s="19">
         <v>19</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="20" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="22">
+      <c r="A62" s="19">
         <v>20</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C62" s="20" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="22">
+      <c r="A63" s="19">
         <v>21</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="20" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="22">
+      <c r="A64" s="19">
         <v>22</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C64" s="20" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="22">
+      <c r="A65" s="19">
         <v>23</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="20" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="22">
+      <c r="A66" s="19">
         <v>24</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="20" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="22">
+      <c r="A67" s="19">
         <v>25</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C67" s="20" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="22">
+      <c r="A68" s="19">
         <v>26</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="25" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="22">
+      <c r="A69" s="19">
         <v>27</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="C69" s="27"/>
+      <c r="C69" s="26"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="22">
+      <c r="A70" s="19">
         <v>28</v>
       </c>
-      <c r="B70" s="23" t="s">
+      <c r="B70" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="C70" s="27"/>
+      <c r="C70" s="26"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="22">
+      <c r="A71" s="19">
         <v>29</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="C71" s="27"/>
+      <c r="C71" s="26"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="22">
+      <c r="A72" s="19">
         <v>30</v>
       </c>
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="C72" s="28"/>
+      <c r="C72" s="27"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="22">
+      <c r="A73" s="19">
         <v>31</v>
       </c>
-      <c r="B73" s="23" t="s">
+      <c r="B73" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C73" s="20" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="22">
+      <c r="A74" s="19">
         <v>32</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C74" s="20" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="22">
+      <c r="A75" s="19">
         <v>33</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C75" s="20" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A76" s="22">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="19">
         <v>34</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C76" s="20" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="22">
+    <row r="77" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A77" s="19">
         <v>35</v>
       </c>
-      <c r="B77" s="23" t="s">
+      <c r="B77" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="C77" s="23" t="s">
+      <c r="C77" s="20" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="22">
+      <c r="A78" s="19">
         <v>36</v>
       </c>
-      <c r="B78" s="23" t="s">
+      <c r="B78" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="C78" s="20" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="22">
+      <c r="A79" s="19">
         <v>37</v>
       </c>
-      <c r="B79" s="23" t="s">
+      <c r="B79" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="C79" s="23" t="s">
+      <c r="C79" s="20" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A80" s="22">
+      <c r="A80" s="19">
         <v>38</v>
       </c>
-      <c r="B80" s="23" t="s">
+      <c r="B80" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="C80" s="23" t="s">
+      <c r="C80" s="20" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="22">
+      <c r="A81" s="19">
         <v>39</v>
       </c>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="22">
+      <c r="A82" s="19">
         <v>40</v>
       </c>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="22">
+      <c r="A83" s="19">
         <v>41</v>
       </c>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="22">
+      <c r="A84" s="19">
         <v>42</v>
       </c>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="22">
+      <c r="A85" s="19">
         <v>43</v>
       </c>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
     </row>
     <row r="89" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="30" t="s">
+      <c r="A89" s="23" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="20" t="s">
+      <c r="A91" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="B91" s="21" t="s">
+      <c r="B91" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="D91" s="21" t="s">
+      <c r="D91" s="18" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="22">
+      <c r="A92" s="19">
         <v>1</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="B92" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C92" s="23" t="s">
+      <c r="C92" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="D92" s="29"/>
+      <c r="D92" s="22"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="22">
+      <c r="A93" s="19">
         <v>2</v>
       </c>
-      <c r="B93" s="23" t="s">
+      <c r="B93" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="C93" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="D93" s="29"/>
+      <c r="D93" s="22"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="22">
+      <c r="A94" s="19">
         <v>3</v>
       </c>
-      <c r="B94" s="23" t="s">
+      <c r="B94" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C94" s="23" t="s">
+      <c r="C94" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D94" s="29" t="s">
+      <c r="D94" s="22" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="22">
+      <c r="A95" s="19">
         <v>4</v>
       </c>
-      <c r="B95" s="23" t="s">
+      <c r="B95" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C95" s="23" t="s">
+      <c r="C95" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D95" s="29"/>
+      <c r="D95" s="22"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="22">
+      <c r="A96" s="19">
         <v>5</v>
       </c>
-      <c r="B96" s="23" t="s">
+      <c r="B96" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C96" s="23" t="s">
+      <c r="C96" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D96" s="29"/>
+      <c r="D96" s="22"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="22">
+      <c r="A97" s="19">
         <v>6</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="B97" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C97" s="23" t="s">
+      <c r="C97" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="D97" s="29"/>
+      <c r="D97" s="22"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="22">
+      <c r="A98" s="19">
         <v>7</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="B98" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C98" s="23" t="s">
+      <c r="C98" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="D98" s="29"/>
+      <c r="D98" s="22"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="22">
+      <c r="A99" s="19">
         <v>8</v>
       </c>
-      <c r="B99" s="23" t="s">
+      <c r="B99" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C99" s="23" t="s">
+      <c r="C99" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D99" s="29"/>
+      <c r="D99" s="22"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="22">
+      <c r="A100" s="19">
         <v>9</v>
       </c>
-      <c r="B100" s="23" t="s">
+      <c r="B100" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C100" s="23" t="s">
+      <c r="C100" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="D100" s="29"/>
+      <c r="D100" s="22"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="22">
+      <c r="A101" s="19">
         <v>10</v>
       </c>
-      <c r="B101" s="23" t="s">
+      <c r="B101" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C101" s="23" t="s">
+      <c r="C101" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="D101" s="29"/>
+      <c r="D101" s="22"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="22">
+      <c r="A102" s="19">
         <v>11</v>
       </c>
-      <c r="B102" s="23" t="s">
+      <c r="B102" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="23" t="s">
+      <c r="C102" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D102" s="29"/>
+      <c r="D102" s="22"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="22">
+      <c r="A103" s="19">
         <v>12</v>
       </c>
-      <c r="B103" s="23" t="s">
+      <c r="B103" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C103" s="23" t="s">
+      <c r="C103" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="D103" s="29"/>
+      <c r="D103" s="22"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="22">
+      <c r="A104" s="19">
         <v>13</v>
       </c>
-      <c r="B104" s="23" t="s">
+      <c r="B104" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C104" s="23" t="s">
+      <c r="C104" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="D104" s="29"/>
+      <c r="D104" s="22"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="22">
+      <c r="A105" s="19">
         <v>14</v>
       </c>
-      <c r="B105" s="23" t="s">
+      <c r="B105" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C105" s="23" t="s">
+      <c r="C105" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="D105" s="29"/>
+      <c r="D105" s="22"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="22">
+      <c r="A106" s="19">
         <v>15</v>
       </c>
-      <c r="B106" s="23" t="s">
+      <c r="B106" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C106" s="23" t="s">
+      <c r="C106" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="D106" s="29"/>
+      <c r="D106" s="22"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="22">
+      <c r="A107" s="19">
         <v>16</v>
       </c>
-      <c r="B107" s="23" t="s">
+      <c r="B107" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="23" t="s">
+      <c r="C107" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="D107" s="29"/>
+      <c r="D107" s="22"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="22">
+      <c r="A108" s="19">
         <v>17</v>
       </c>
-      <c r="B108" s="23" t="s">
+      <c r="B108" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C108" s="23" t="s">
+      <c r="C108" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="D108" s="29"/>
+      <c r="D108" s="22"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="22">
+      <c r="A109" s="19">
         <v>18</v>
       </c>
-      <c r="B109" s="23" t="s">
+      <c r="B109" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C109" s="23" t="s">
+      <c r="C109" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="D109" s="29"/>
+      <c r="D109" s="22"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="22">
+      <c r="A110" s="19">
         <v>19</v>
       </c>
-      <c r="B110" s="23" t="s">
+      <c r="B110" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C110" s="23" t="s">
+      <c r="C110" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="D110" s="29"/>
+      <c r="D110" s="22"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="22">
+      <c r="A111" s="19">
         <v>20</v>
       </c>
-      <c r="B111" s="23" t="s">
+      <c r="B111" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C111" s="23" t="s">
+      <c r="C111" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="D111" s="29"/>
+      <c r="D111" s="22"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="22">
+      <c r="A112" s="19">
         <v>21</v>
       </c>
-      <c r="B112" s="23" t="s">
+      <c r="B112" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C112" s="23" t="s">
+      <c r="C112" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D112" s="29" t="s">
+      <c r="D112" s="22" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="22">
+      <c r="A113" s="19">
         <v>22</v>
       </c>
-      <c r="B113" s="23" t="s">
+      <c r="B113" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C113" s="23" t="s">
+      <c r="C113" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="D113" s="29" t="s">
+      <c r="D113" s="22" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="22">
+      <c r="A114" s="19">
         <v>23</v>
       </c>
-      <c r="B114" s="23" t="s">
+      <c r="B114" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C114" s="23" t="s">
+      <c r="C114" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D114" s="29"/>
+      <c r="D114" s="22"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="22">
+      <c r="A115" s="19">
         <v>24</v>
       </c>
-      <c r="B115" s="23" t="s">
+      <c r="B115" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C115" s="23" t="s">
+      <c r="C115" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="D115" s="29"/>
+      <c r="D115" s="22"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="22">
+      <c r="A116" s="19">
         <v>25</v>
       </c>
-      <c r="B116" s="23" t="s">
+      <c r="B116" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C116" s="23" t="s">
+      <c r="C116" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="D116" s="29"/>
+      <c r="D116" s="22"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="22">
+      <c r="A117" s="19">
         <v>26</v>
       </c>
-      <c r="B117" s="23" t="s">
+      <c r="B117" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C117" s="23" t="s">
+      <c r="C117" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="D117" s="29"/>
+      <c r="D117" s="22"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="22">
+      <c r="A118" s="19">
         <v>27</v>
       </c>
-      <c r="B118" s="23" t="s">
+      <c r="B118" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C118" s="23" t="s">
+      <c r="C118" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="D118" s="29"/>
+      <c r="D118" s="22"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="22">
+      <c r="A119" s="19">
         <v>28</v>
       </c>
-      <c r="B119" s="23" t="s">
+      <c r="B119" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C119" s="23" t="s">
+      <c r="C119" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D119" s="29"/>
+      <c r="D119" s="22"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="22">
+      <c r="A120" s="19">
         <v>29</v>
       </c>
-      <c r="B120" s="23" t="s">
+      <c r="B120" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C120" s="23" t="s">
+      <c r="C120" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D120" s="29"/>
+      <c r="D120" s="22"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="22">
+      <c r="A121" s="19">
         <v>30</v>
       </c>
-      <c r="B121" s="23" t="s">
+      <c r="B121" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C121" s="23" t="s">
+      <c r="C121" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="D121" s="29"/>
+      <c r="D121" s="22"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="22">
+      <c r="A122" s="19">
         <v>31</v>
       </c>
-      <c r="B122" s="23" t="s">
+      <c r="B122" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C122" s="23" t="s">
+      <c r="C122" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="D122" s="29"/>
+      <c r="D122" s="22"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="22">
+      <c r="A123" s="19">
         <v>32</v>
       </c>
-      <c r="B123" s="23" t="s">
+      <c r="B123" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C123" s="23" t="s">
+      <c r="C123" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="D123" s="29"/>
+      <c r="D123" s="22"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="22">
+      <c r="A124" s="19">
         <v>33</v>
       </c>
-      <c r="B124" s="23" t="s">
+      <c r="B124" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C124" s="23" t="s">
+      <c r="C124" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="D124" s="29"/>
+      <c r="D124" s="22"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="22">
+      <c r="A125" s="19">
         <v>34</v>
       </c>
-      <c r="B125" s="23" t="s">
+      <c r="B125" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C125" s="23" t="s">
+      <c r="C125" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D125" s="29"/>
+      <c r="D125" s="22"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="22">
+      <c r="A126" s="19">
         <v>35</v>
       </c>
-      <c r="B126" s="23" t="s">
+      <c r="B126" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C126" s="23" t="s">
+      <c r="C126" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D126" s="29"/>
+      <c r="D126" s="22"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="22">
+      <c r="A127" s="19">
         <v>36</v>
       </c>
-      <c r="B127" s="23" t="s">
+      <c r="B127" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C127" s="23" t="s">
+      <c r="C127" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="D127" s="29"/>
+      <c r="D127" s="22"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="22">
+      <c r="A128" s="19">
         <v>37</v>
       </c>
-      <c r="B128" s="23" t="s">
+      <c r="B128" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C128" s="23" t="s">
+      <c r="C128" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D128" s="29"/>
+      <c r="D128" s="22"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="22">
+      <c r="A129" s="19">
         <v>38</v>
       </c>
-      <c r="B129" s="23" t="s">
+      <c r="B129" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C129" s="23" t="s">
+      <c r="C129" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="D129" s="29"/>
+      <c r="D129" s="22"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="22">
+      <c r="A130" s="19">
         <v>39</v>
       </c>
-      <c r="B130" s="23" t="s">
+      <c r="B130" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C130" s="23" t="s">
+      <c r="C130" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="D130" s="29"/>
+      <c r="D130" s="22"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="22">
+      <c r="A131" s="19">
         <v>40</v>
       </c>
-      <c r="B131" s="23" t="s">
+      <c r="B131" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C131" s="23" t="s">
+      <c r="C131" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="D131" s="29"/>
+      <c r="D131" s="22"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="22">
+      <c r="A132" s="19">
         <v>41</v>
       </c>
-      <c r="B132" s="23" t="s">
+      <c r="B132" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C132" s="23" t="s">
+      <c r="C132" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="D132" s="29"/>
+      <c r="D132" s="22"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="22">
+      <c r="A133" s="19">
         <v>42</v>
       </c>
-      <c r="B133" s="23" t="s">
+      <c r="B133" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C133" s="23" t="s">
+      <c r="C133" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="D133" s="29" t="s">
+      <c r="D133" s="22" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="22">
+      <c r="A134" s="19">
         <v>43</v>
       </c>
-      <c r="B134" s="23" t="s">
+      <c r="B134" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C134" s="23" t="s">
+      <c r="C134" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="D134" s="29" t="s">
+      <c r="D134" s="22" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="22">
+      <c r="A135" s="19">
         <v>44</v>
       </c>
-      <c r="B135" s="23" t="s">
+      <c r="B135" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C135" s="23" t="s">
+      <c r="C135" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="D135" s="29" t="s">
+      <c r="D135" s="22" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="22">
+      <c r="A136" s="19">
         <v>45</v>
       </c>
-      <c r="B136" s="23" t="s">
+      <c r="B136" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C136" s="23" t="s">
+      <c r="C136" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="D136" s="29" t="s">
+      <c r="D136" s="22" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="22">
+      <c r="A137" s="19">
         <v>46</v>
       </c>
-      <c r="B137" s="23" t="s">
+      <c r="B137" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C137" s="23" t="s">
+      <c r="C137" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="D137" s="29" t="s">
+      <c r="D137" s="22" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="22">
+      <c r="A138" s="19">
         <v>47</v>
       </c>
-      <c r="B138" s="23" t="s">
+      <c r="B138" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C138" s="23"/>
-      <c r="D138" s="29"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="22"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="22">
+      <c r="A139" s="19">
         <v>48</v>
       </c>
-      <c r="B139" s="23" t="s">
+      <c r="B139" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C139" s="23"/>
-      <c r="D139" s="29"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="22"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="22">
+      <c r="A140" s="19">
         <v>49</v>
       </c>
-      <c r="B140" s="23" t="s">
+      <c r="B140" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C140" s="23"/>
-      <c r="D140" s="29"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="22"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="22">
+      <c r="A141" s="19">
         <v>50</v>
       </c>
-      <c r="B141" s="23" t="s">
+      <c r="B141" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C141" s="23" t="s">
+      <c r="C141" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="D141" s="29"/>
+      <c r="D141" s="22"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="22">
+      <c r="A142" s="19">
         <v>51</v>
       </c>
-      <c r="B142" s="23" t="s">
+      <c r="B142" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C142" s="23" t="s">
+      <c r="C142" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D142" s="29"/>
+      <c r="D142" s="22"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="22">
+      <c r="A143" s="19">
         <v>52</v>
       </c>
-      <c r="B143" s="23" t="s">
+      <c r="B143" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C143" s="23" t="s">
+      <c r="C143" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="D143" s="29"/>
+      <c r="D143" s="22"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="22">
+      <c r="A144" s="19">
         <v>53</v>
       </c>
-      <c r="B144" s="23" t="s">
+      <c r="B144" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C144" s="23" t="s">
+      <c r="C144" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="D144" s="29"/>
+      <c r="D144" s="22"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="22">
+      <c r="A145" s="19">
         <v>54</v>
       </c>
-      <c r="B145" s="23" t="s">
+      <c r="B145" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C145" s="23" t="s">
+      <c r="C145" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="D145" s="29"/>
+      <c r="D145" s="22"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="22">
+      <c r="A146" s="19">
         <v>55</v>
       </c>
-      <c r="B146" s="23" t="s">
+      <c r="B146" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C146" s="23" t="s">
+      <c r="C146" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="D146" s="29"/>
+      <c r="D146" s="22"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="22">
+      <c r="A147" s="19">
         <v>56</v>
       </c>
-      <c r="B147" s="23" t="s">
+      <c r="B147" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C147" s="23" t="s">
+      <c r="C147" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="D147" s="29"/>
+      <c r="D147" s="22"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="22">
+      <c r="A148" s="31">
         <v>57</v>
       </c>
-      <c r="B148" s="23" t="s">
+      <c r="B148" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="C148" s="23" t="s">
+      <c r="C148" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="D148" s="29" t="s">
+      <c r="D148" s="33" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="22">
+      <c r="A149" s="31">
         <v>58</v>
       </c>
-      <c r="B149" s="23" t="s">
+      <c r="B149" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C149" s="23" t="s">
+      <c r="C149" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="D149" s="29" t="s">
+      <c r="D149" s="33" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="22">
+      <c r="A150" s="31">
         <v>59</v>
       </c>
-      <c r="B150" s="23" t="s">
+      <c r="B150" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="C150" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="D150" s="33" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="19">
+        <v>60</v>
+      </c>
+      <c r="B151" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C150" s="23" t="s">
+      <c r="C151" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D150" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="22">
+      <c r="D151" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="19">
+        <v>61</v>
+      </c>
+      <c r="B152" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C152" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D152" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="19">
+        <v>62</v>
+      </c>
+      <c r="B153" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C153" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D153" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="19">
+        <v>63</v>
+      </c>
+      <c r="B154" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C154" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D154" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="19">
+        <v>64</v>
+      </c>
+      <c r="B155" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C155" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D155" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="19">
+        <v>65</v>
+      </c>
+      <c r="B156" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C156" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D156" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="19">
+        <v>66</v>
+      </c>
+      <c r="B157" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C157" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D157" s="22"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="19">
+        <v>67</v>
+      </c>
+      <c r="B158" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C158" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D158" s="22"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="19">
+        <v>68</v>
+      </c>
+      <c r="B159" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C159" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D159" s="22"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="19">
+        <v>69</v>
+      </c>
+      <c r="B160" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C160" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D160" s="22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="19">
+        <v>70</v>
+      </c>
+      <c r="B161" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C161" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D161" s="22"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="19">
+        <v>71</v>
+      </c>
+      <c r="B162" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B151" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C151" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="D151" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="22">
+      <c r="C162" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D162" s="22"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="19">
+        <v>72</v>
+      </c>
+      <c r="B163" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B152" s="23" t="s">
+      <c r="C163" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="D163" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="19">
+        <v>73</v>
+      </c>
+      <c r="B164" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C164" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D164" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="19">
+        <v>74</v>
+      </c>
+      <c r="B165" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C165" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D165" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="19">
+        <v>75</v>
+      </c>
+      <c r="B166" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C166" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D166" s="22"/>
+    </row>
+    <row r="167" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="31">
+        <v>76</v>
+      </c>
+      <c r="B167" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C167" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D167" s="33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="31">
+        <v>77</v>
+      </c>
+      <c r="B168" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="C168" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="D168" s="33" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="19">
+        <v>78</v>
+      </c>
+      <c r="B169" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C169" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D169" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="19">
+        <v>79</v>
+      </c>
+      <c r="B170" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C170" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D170" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="19">
+        <v>80</v>
+      </c>
+      <c r="B171" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C171" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D171" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="19">
+        <v>81</v>
+      </c>
+      <c r="B172" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C172" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="D172" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="19">
+        <v>82</v>
+      </c>
+      <c r="B173" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C173" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D173" s="22"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="19">
+        <v>83</v>
+      </c>
+      <c r="B174" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C174" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="D174" s="22"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="19">
+        <v>84</v>
+      </c>
+      <c r="B175" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C175" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D175" s="22"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="19">
+        <v>85</v>
+      </c>
+      <c r="B176" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C176" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D176" s="22"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="19">
+        <v>86</v>
+      </c>
+      <c r="B177" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C177" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D177" s="22"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="19">
+        <v>87</v>
+      </c>
+      <c r="B178" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C178" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D178" s="22"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="19">
+        <v>88</v>
+      </c>
+      <c r="B179" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C179" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D179" s="22"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="19">
+        <v>89</v>
+      </c>
+      <c r="B180" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C180" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D180" s="22"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="19">
+        <v>90</v>
+      </c>
+      <c r="B181" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C181" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D181" s="22"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="19">
+        <v>91</v>
+      </c>
+      <c r="B182" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C182" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D182" s="22"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="19">
+        <v>92</v>
+      </c>
+      <c r="B183" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C183" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="D183" s="22"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="19">
+        <v>93</v>
+      </c>
+      <c r="B184" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C184" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="D184" s="22"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="19">
+        <v>94</v>
+      </c>
+      <c r="B185" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C185" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D185" s="22"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="19">
+        <v>95</v>
+      </c>
+      <c r="B186" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C186" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D186" s="22"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="19">
+        <v>96</v>
+      </c>
+      <c r="B187" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C187" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="D187" s="22"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="19">
+        <v>97</v>
+      </c>
+      <c r="B188" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C188" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D188" s="22"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="19">
+        <v>98</v>
+      </c>
+      <c r="B189" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C189" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D189" s="22"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="19">
+        <v>99</v>
+      </c>
+      <c r="B190" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C190" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D190" s="22"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="19">
+        <v>100</v>
+      </c>
+      <c r="B191" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C191" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D191" s="22"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="19">
+        <v>101</v>
+      </c>
+      <c r="B192" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C192" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D192" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="19">
+        <v>102</v>
+      </c>
+      <c r="B193" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C193" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D193" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="19">
+        <v>103</v>
+      </c>
+      <c r="B194" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C194" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="D194" s="22"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="19">
+        <v>104</v>
+      </c>
+      <c r="B195" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C195" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="D195" s="22"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="19">
+        <v>105</v>
+      </c>
+      <c r="B196" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C196" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="D196" s="22"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="19">
+        <v>106</v>
+      </c>
+      <c r="B197" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C197" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="D197" s="22"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="19">
+        <v>107</v>
+      </c>
+      <c r="B198" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C198" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D198" s="22"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="19">
+        <v>108</v>
+      </c>
+      <c r="B199" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C199" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="D199" s="22"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="19">
+        <v>109</v>
+      </c>
+      <c r="B200" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C200" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D200" s="22"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="19">
+        <v>110</v>
+      </c>
+      <c r="B201" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C201" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="D201" s="22"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="19">
+        <v>111</v>
+      </c>
+      <c r="B202" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C202" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="D202" s="22"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="19">
+        <v>112</v>
+      </c>
+      <c r="B203" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C203" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="D203" s="22"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="19">
+        <v>113</v>
+      </c>
+      <c r="B204" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C204" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D204" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="19">
+        <v>114</v>
+      </c>
+      <c r="B205" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C205" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="D205" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="19">
+        <v>115</v>
+      </c>
+      <c r="B206" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C206" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="D206" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="19">
+        <v>116</v>
+      </c>
+      <c r="B207" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C207" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="D207" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="19">
+        <v>117</v>
+      </c>
+      <c r="B208" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C208" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="D208" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="19">
+        <v>118</v>
+      </c>
+      <c r="B209" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C209" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="D209" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="19">
+        <v>119</v>
+      </c>
+      <c r="B210" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C210" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="D210" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="19">
+        <v>120</v>
+      </c>
+      <c r="B211" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C211" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="D211" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="19">
+        <v>121</v>
+      </c>
+      <c r="B212" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C212" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="D212" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="19">
+        <v>122</v>
+      </c>
+      <c r="B213" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C213" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="D213" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="19">
+        <v>123</v>
+      </c>
+      <c r="B214" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C214" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D214" s="22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="19">
+        <v>124</v>
+      </c>
+      <c r="B215" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C215" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D215" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="19">
+        <v>125</v>
+      </c>
+      <c r="B216" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C216" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="D216" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="19">
+        <v>126</v>
+      </c>
+      <c r="B217" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C217" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D217" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="19">
+        <v>127</v>
+      </c>
+      <c r="B218" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C218" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="D218" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="19">
+        <v>128</v>
+      </c>
+      <c r="B219" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C219" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="D219" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="19">
+        <v>129</v>
+      </c>
+      <c r="B220" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C220" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D220" s="22"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="19">
+        <v>130</v>
+      </c>
+      <c r="B221" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C221" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="D221" s="22"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="19">
+        <v>131</v>
+      </c>
+      <c r="B222" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C222" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D222" s="22"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="19">
         <v>132</v>
       </c>
-      <c r="C152" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="D152" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="22">
-        <v>62</v>
-      </c>
-      <c r="B153" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C153" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D153" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="22">
-        <v>63</v>
-      </c>
-      <c r="B154" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C154" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="D154" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="22">
-        <v>64</v>
-      </c>
-      <c r="B155" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C155" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="D155" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="22">
-        <v>65</v>
-      </c>
-      <c r="B156" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C156" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="D156" s="29"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="22">
-        <v>66</v>
-      </c>
-      <c r="B157" s="23" t="s">
+      <c r="B223" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C223" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D223" s="22"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="19">
+        <v>133</v>
+      </c>
+      <c r="B224" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C224" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D224" s="22"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="19">
+        <v>134</v>
+      </c>
+      <c r="B225" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C225" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D225" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="19">
+        <v>135</v>
+      </c>
+      <c r="B226" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C226" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="D226" s="22"/>
+    </row>
+    <row r="227" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="19">
+        <v>136</v>
+      </c>
+      <c r="B227" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C227" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D227" s="22"/>
+    </row>
+    <row r="228" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="19">
+        <v>137</v>
+      </c>
+      <c r="B228" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C228" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D228" s="22"/>
+    </row>
+    <row r="229" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="19">
+        <v>138</v>
+      </c>
+      <c r="B229" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C229" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="D229" s="22"/>
+    </row>
+    <row r="230" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="19">
         <v>139</v>
       </c>
-      <c r="C157" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D157" s="29"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="22">
-        <v>67</v>
-      </c>
-      <c r="B158" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C158" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="D158" s="29"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="22">
-        <v>68</v>
-      </c>
-      <c r="B159" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C159" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="D159" s="29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="22">
-        <v>69</v>
-      </c>
-      <c r="B160" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C160" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="D160" s="29"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="22">
-        <v>70</v>
-      </c>
-      <c r="B161" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C161" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D161" s="29"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="22">
-        <v>71</v>
-      </c>
-      <c r="B162" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C162" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="D162" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="22">
-        <v>72</v>
-      </c>
-      <c r="B163" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C163" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="D163" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="22">
-        <v>73</v>
-      </c>
-      <c r="B164" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C164" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="D164" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="22">
-        <v>74</v>
-      </c>
-      <c r="B165" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C165" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="D165" s="29"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="22">
-        <v>75</v>
-      </c>
-      <c r="B166" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C166" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="D166" s="29" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="22">
-        <v>76</v>
-      </c>
-      <c r="B167" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C167" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="D167" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="22">
-        <v>77</v>
-      </c>
-      <c r="B168" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C168" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="D168" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="22">
-        <v>78</v>
-      </c>
-      <c r="B169" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C169" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="D169" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="22">
-        <v>79</v>
-      </c>
-      <c r="B170" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C170" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="D170" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="22">
-        <v>80</v>
-      </c>
-      <c r="B171" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C171" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="D171" s="29"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="22">
-        <v>81</v>
-      </c>
-      <c r="B172" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C172" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="D172" s="29"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="22">
-        <v>82</v>
-      </c>
-      <c r="B173" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C173" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="D173" s="29"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="22">
-        <v>83</v>
-      </c>
-      <c r="B174" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C174" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="D174" s="29"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="22">
-        <v>84</v>
-      </c>
-      <c r="B175" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C175" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="D175" s="29"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="22">
-        <v>85</v>
-      </c>
-      <c r="B176" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C176" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="D176" s="29"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="22">
-        <v>86</v>
-      </c>
-      <c r="B177" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C177" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="D177" s="29"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="22">
-        <v>87</v>
-      </c>
-      <c r="B178" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C178" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="D178" s="29"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="22">
-        <v>88</v>
-      </c>
-      <c r="B179" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C179" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="D179" s="29"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="22">
-        <v>89</v>
-      </c>
-      <c r="B180" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C180" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="D180" s="29"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="22">
-        <v>90</v>
-      </c>
-      <c r="B181" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C181" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="D181" s="29"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="22">
-        <v>91</v>
-      </c>
-      <c r="B182" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C182" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="D182" s="29"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="22">
-        <v>92</v>
-      </c>
-      <c r="B183" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C183" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="D183" s="29"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="22">
-        <v>93</v>
-      </c>
-      <c r="B184" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C184" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="D184" s="29"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="22">
-        <v>94</v>
-      </c>
-      <c r="B185" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C185" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="D185" s="29"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="22">
-        <v>95</v>
-      </c>
-      <c r="B186" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C186" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="D186" s="29"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="22">
-        <v>96</v>
-      </c>
-      <c r="B187" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C187" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="D187" s="29"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="22">
-        <v>97</v>
-      </c>
-      <c r="B188" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C188" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="D188" s="29"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="22">
-        <v>98</v>
-      </c>
-      <c r="B189" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C189" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="D189" s="29"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="22">
-        <v>99</v>
-      </c>
-      <c r="B190" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C190" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="D190" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="22">
-        <v>100</v>
-      </c>
-      <c r="B191" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C191" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="D191" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="22">
-        <v>101</v>
-      </c>
-      <c r="B192" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C192" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="D192" s="29"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="22">
-        <v>102</v>
-      </c>
-      <c r="B193" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C193" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="D193" s="29"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="22">
-        <v>103</v>
-      </c>
-      <c r="B194" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C194" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="D194" s="29"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="22">
-        <v>104</v>
-      </c>
-      <c r="B195" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C195" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="D195" s="29"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="22">
-        <v>105</v>
-      </c>
-      <c r="B196" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C196" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="D196" s="29"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="22">
-        <v>106</v>
-      </c>
-      <c r="B197" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C197" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="D197" s="29"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="22">
-        <v>107</v>
-      </c>
-      <c r="B198" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C198" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="D198" s="29"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="22">
-        <v>108</v>
-      </c>
-      <c r="B199" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C199" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="D199" s="29"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="22">
-        <v>109</v>
-      </c>
-      <c r="B200" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C200" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="D200" s="29"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="22">
-        <v>110</v>
-      </c>
-      <c r="B201" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C201" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="D201" s="29"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="22">
-        <v>111</v>
-      </c>
-      <c r="B202" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C202" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="D202" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="22">
-        <v>112</v>
-      </c>
-      <c r="B203" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C203" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="D203" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="22">
-        <v>113</v>
-      </c>
-      <c r="B204" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C204" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="D204" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="22">
-        <v>114</v>
-      </c>
-      <c r="B205" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C205" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="D205" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="22">
-        <v>115</v>
-      </c>
-      <c r="B206" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C206" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="D206" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="22">
-        <v>116</v>
-      </c>
-      <c r="B207" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C207" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="D207" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="22">
-        <v>117</v>
-      </c>
-      <c r="B208" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C208" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="D208" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="22">
-        <v>118</v>
-      </c>
-      <c r="B209" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C209" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="D209" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="22">
-        <v>119</v>
-      </c>
-      <c r="B210" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C210" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="D210" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="22">
-        <v>120</v>
-      </c>
-      <c r="B211" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C211" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="D211" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="22">
-        <v>121</v>
-      </c>
-      <c r="B212" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C212" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="D212" s="29" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="22">
-        <v>122</v>
-      </c>
-      <c r="B213" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C213" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="D213" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="22">
-        <v>123</v>
-      </c>
-      <c r="B214" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C214" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="D214" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="22">
-        <v>124</v>
-      </c>
-      <c r="B215" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C215" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="D215" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="22">
-        <v>125</v>
-      </c>
-      <c r="B216" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C216" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="D216" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="22">
-        <v>126</v>
-      </c>
-      <c r="B217" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C217" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="D217" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="22">
+      <c r="B230" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B218" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C218" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="D218" s="29"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="22">
-        <v>128</v>
-      </c>
-      <c r="B219" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C219" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="D219" s="29"/>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="22">
-        <v>129</v>
-      </c>
-      <c r="B220" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C220" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="D220" s="29"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="22">
-        <v>130</v>
-      </c>
-      <c r="B221" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C221" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="D221" s="29"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="22">
-        <v>131</v>
-      </c>
-      <c r="B222" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C222" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="D222" s="29"/>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="22">
-        <v>132</v>
-      </c>
-      <c r="B223" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C223" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="D223" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="22">
-        <v>133</v>
-      </c>
-      <c r="B224" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C224" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="D224" s="29"/>
-    </row>
-    <row r="225" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="22">
-        <v>134</v>
-      </c>
-      <c r="B225" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C225" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="D225" s="29"/>
-    </row>
-    <row r="226" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="22">
-        <v>135</v>
-      </c>
-      <c r="B226" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C226" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="D226" s="29"/>
-    </row>
-    <row r="227" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="22">
-        <v>136</v>
-      </c>
-      <c r="B227" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C227" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="D227" s="29"/>
-    </row>
-    <row r="228" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="22">
-        <v>137</v>
-      </c>
-      <c r="B228" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C228" s="23" t="s">
+      <c r="C230" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D228" s="29"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="22"/>
-      <c r="B229" s="23"/>
-      <c r="C229" s="23"/>
-      <c r="D229" s="29"/>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="22"/>
-      <c r="B230" s="23"/>
-      <c r="C230" s="23"/>
-      <c r="D230" s="29"/>
+      <c r="D230" s="22"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="22"/>
-      <c r="B231" s="23"/>
-      <c r="C231" s="23"/>
-      <c r="D231" s="29"/>
+      <c r="A231" s="19"/>
+      <c r="B231" s="20"/>
+      <c r="C231" s="20"/>
+      <c r="D231" s="22"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="22"/>
-      <c r="B232" s="23"/>
-      <c r="C232" s="23"/>
-      <c r="D232" s="29"/>
+      <c r="A232" s="19"/>
+      <c r="B232" s="20"/>
+      <c r="C232" s="20"/>
+      <c r="D232" s="22"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="22"/>
-      <c r="B233" s="23"/>
-      <c r="C233" s="23"/>
-      <c r="D233" s="29"/>
+      <c r="A233" s="19"/>
+      <c r="B233" s="20"/>
+      <c r="C233" s="20"/>
+      <c r="D233" s="22"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="22"/>
-      <c r="B234" s="23"/>
-      <c r="C234" s="23"/>
-      <c r="D234" s="29"/>
+      <c r="A234" s="19"/>
+      <c r="B234" s="20"/>
+      <c r="C234" s="20"/>
+      <c r="D234" s="22"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="22"/>
-      <c r="B235" s="23"/>
-      <c r="C235" s="23"/>
-      <c r="D235" s="29"/>
+      <c r="A235" s="19"/>
+      <c r="B235" s="20"/>
+      <c r="C235" s="20"/>
+      <c r="D235" s="22"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="22"/>
-      <c r="B236" s="23"/>
-      <c r="C236" s="23"/>
-      <c r="D236" s="29"/>
+      <c r="A236" s="19"/>
+      <c r="B236" s="20"/>
+      <c r="C236" s="20"/>
+      <c r="D236" s="22"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="22"/>
-      <c r="B237" s="23"/>
-      <c r="C237" s="23"/>
-      <c r="D237" s="29"/>
+      <c r="A237" s="19"/>
+      <c r="B237" s="20"/>
+      <c r="C237" s="20"/>
+      <c r="D237" s="22"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="22"/>
-      <c r="B238" s="23"/>
-      <c r="C238" s="23"/>
-      <c r="D238" s="29"/>
+      <c r="A238" s="19"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
+      <c r="D238" s="22"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="22"/>
-      <c r="B239" s="23"/>
-      <c r="C239" s="23"/>
-      <c r="D239" s="29"/>
+      <c r="A239" s="19"/>
+      <c r="B239" s="20"/>
+      <c r="C239" s="20"/>
+      <c r="D239" s="22"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="22"/>
-      <c r="B240" s="23"/>
-      <c r="C240" s="23"/>
-      <c r="D240" s="29"/>
+      <c r="A240" s="19"/>
+      <c r="B240" s="20"/>
+      <c r="C240" s="20"/>
+      <c r="D240" s="22"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="22"/>
-      <c r="B241" s="23"/>
-      <c r="C241" s="23"/>
-      <c r="D241" s="29"/>
+      <c r="A241" s="19"/>
+      <c r="B241" s="20"/>
+      <c r="C241" s="20"/>
+      <c r="D241" s="22"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="22"/>
-      <c r="B242" s="23"/>
-      <c r="C242" s="23"/>
-      <c r="D242" s="29"/>
+      <c r="A242" s="19"/>
+      <c r="B242" s="20"/>
+      <c r="C242" s="20"/>
+      <c r="D242" s="22"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="22"/>
-      <c r="B243" s="23"/>
-      <c r="C243" s="23"/>
-      <c r="D243" s="29"/>
+      <c r="A243" s="19"/>
+      <c r="B243" s="20"/>
+      <c r="C243" s="20"/>
+      <c r="D243" s="22"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="22"/>
-      <c r="B244" s="23"/>
-      <c r="C244" s="23"/>
-      <c r="D244" s="29"/>
+      <c r="A244" s="19"/>
+      <c r="B244" s="20"/>
+      <c r="C244" s="20"/>
+      <c r="D244" s="22"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="22"/>
-      <c r="B245" s="23"/>
-      <c r="C245" s="23"/>
-      <c r="D245" s="29"/>
+      <c r="A245" s="19"/>
+      <c r="B245" s="20"/>
+      <c r="C245" s="20"/>
+      <c r="D245" s="22"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" s="22"/>
-      <c r="B246" s="23"/>
-      <c r="C246" s="23"/>
-      <c r="D246" s="29"/>
+      <c r="A246" s="19"/>
+      <c r="B246" s="20"/>
+      <c r="C246" s="20"/>
+      <c r="D246" s="22"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" s="22"/>
-      <c r="B247" s="23"/>
-      <c r="C247" s="23"/>
-      <c r="D247" s="29"/>
+      <c r="A247" s="19"/>
+      <c r="B247" s="20"/>
+      <c r="C247" s="20"/>
+      <c r="D247" s="22"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="22"/>
-      <c r="B248" s="23"/>
-      <c r="C248" s="23"/>
-      <c r="D248" s="29"/>
+      <c r="A248" s="19"/>
+      <c r="B248" s="20"/>
+      <c r="C248" s="20"/>
+      <c r="D248" s="22"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="22"/>
-      <c r="B249" s="23"/>
-      <c r="C249" s="23"/>
-      <c r="D249" s="29"/>
+      <c r="A249" s="19"/>
+      <c r="B249" s="20"/>
+      <c r="C249" s="20"/>
+      <c r="D249" s="22"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="22"/>
-      <c r="B250" s="23"/>
-      <c r="C250" s="23"/>
-      <c r="D250" s="29"/>
+      <c r="A250" s="19"/>
+      <c r="B250" s="20"/>
+      <c r="C250" s="20"/>
+      <c r="D250" s="22"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="22"/>
-      <c r="B251" s="23"/>
-      <c r="C251" s="23"/>
-      <c r="D251" s="29"/>
+      <c r="A251" s="19"/>
+      <c r="B251" s="20"/>
+      <c r="C251" s="20"/>
+      <c r="D251" s="22"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="22"/>
-      <c r="B252" s="23"/>
-      <c r="C252" s="23"/>
-      <c r="D252" s="29"/>
+      <c r="A252" s="19"/>
+      <c r="B252" s="20"/>
+      <c r="C252" s="20"/>
+      <c r="D252" s="22"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="22"/>
-      <c r="B253" s="23"/>
-      <c r="C253" s="23"/>
-      <c r="D253" s="29"/>
+      <c r="A253" s="19"/>
+      <c r="B253" s="20"/>
+      <c r="C253" s="20"/>
+      <c r="D253" s="22"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="22"/>
-      <c r="B254" s="23"/>
-      <c r="C254" s="23"/>
-      <c r="D254" s="29"/>
+      <c r="A254" s="19"/>
+      <c r="B254" s="20"/>
+      <c r="C254" s="20"/>
+      <c r="D254" s="22"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="22"/>
-      <c r="B255" s="23"/>
-      <c r="C255" s="23"/>
-      <c r="D255" s="29"/>
+      <c r="A255" s="19"/>
+      <c r="B255" s="20"/>
+      <c r="C255" s="20"/>
+      <c r="D255" s="22"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="22"/>
-      <c r="B256" s="23"/>
-      <c r="C256" s="23"/>
-      <c r="D256" s="29"/>
+      <c r="A256" s="19"/>
+      <c r="B256" s="20"/>
+      <c r="C256" s="20"/>
+      <c r="D256" s="22"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" s="22"/>
-      <c r="B257" s="23"/>
-      <c r="C257" s="23"/>
-      <c r="D257" s="29"/>
+      <c r="A257" s="19"/>
+      <c r="B257" s="20"/>
+      <c r="C257" s="20"/>
+      <c r="D257" s="22"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" s="22"/>
-      <c r="B258" s="23"/>
-      <c r="C258" s="23"/>
-      <c r="D258" s="29"/>
+      <c r="A258" s="19"/>
+      <c r="B258" s="20"/>
+      <c r="C258" s="20"/>
+      <c r="D258" s="22"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" s="22"/>
-      <c r="B259" s="23"/>
-      <c r="C259" s="23"/>
-      <c r="D259" s="29"/>
+      <c r="A259" s="19"/>
+      <c r="B259" s="20"/>
+      <c r="C259" s="20"/>
+      <c r="D259" s="22"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" s="22"/>
-      <c r="B260" s="23"/>
-      <c r="C260" s="23"/>
-      <c r="D260" s="29"/>
+      <c r="A260" s="19"/>
+      <c r="B260" s="20"/>
+      <c r="C260" s="20"/>
+      <c r="D260" s="22"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" s="22"/>
-      <c r="B261" s="23"/>
-      <c r="C261" s="23"/>
-      <c r="D261" s="29"/>
+      <c r="A261" s="19"/>
+      <c r="B261" s="20"/>
+      <c r="C261" s="20"/>
+      <c r="D261" s="22"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" s="22"/>
-      <c r="B262" s="23"/>
-      <c r="C262" s="23"/>
-      <c r="D262" s="29"/>
+      <c r="A262" s="19"/>
+      <c r="B262" s="20"/>
+      <c r="C262" s="20"/>
+      <c r="D262" s="22"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" s="22"/>
-      <c r="B263" s="23"/>
-      <c r="C263" s="23"/>
-      <c r="D263" s="29"/>
+      <c r="A263" s="19"/>
+      <c r="B263" s="20"/>
+      <c r="C263" s="20"/>
+      <c r="D263" s="22"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" s="22"/>
-      <c r="B264" s="23"/>
-      <c r="C264" s="23"/>
-      <c r="D264" s="29"/>
+      <c r="A264" s="19"/>
+      <c r="B264" s="20"/>
+      <c r="C264" s="20"/>
+      <c r="D264" s="22"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265" s="22"/>
-      <c r="B265" s="23"/>
-      <c r="C265" s="23"/>
-      <c r="D265" s="29"/>
+      <c r="A265" s="19"/>
+      <c r="B265" s="20"/>
+      <c r="C265" s="20"/>
+      <c r="D265" s="22"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" s="22"/>
-      <c r="B266" s="23"/>
-      <c r="C266" s="23"/>
-      <c r="D266" s="29"/>
+      <c r="A266" s="19"/>
+      <c r="B266" s="20"/>
+      <c r="C266" s="20"/>
+      <c r="D266" s="22"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" s="22"/>
-      <c r="B267" s="23"/>
-      <c r="C267" s="23"/>
-      <c r="D267" s="29"/>
+      <c r="A267" s="19"/>
+      <c r="B267" s="20"/>
+      <c r="C267" s="20"/>
+      <c r="D267" s="22"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268" s="22"/>
-      <c r="B268" s="23"/>
-      <c r="C268" s="23"/>
-      <c r="D268" s="29"/>
+      <c r="A268" s="19"/>
+      <c r="B268" s="20"/>
+      <c r="C268" s="20"/>
+      <c r="D268" s="22"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" s="22"/>
-      <c r="B269" s="23"/>
-      <c r="C269" s="23"/>
-      <c r="D269" s="29"/>
+      <c r="A269" s="19"/>
+      <c r="B269" s="20"/>
+      <c r="C269" s="20"/>
+      <c r="D269" s="22"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" s="22"/>
-      <c r="B270" s="23"/>
-      <c r="C270" s="23"/>
-      <c r="D270" s="29"/>
+      <c r="A270" s="19"/>
+      <c r="B270" s="20"/>
+      <c r="C270" s="20"/>
+      <c r="D270" s="22"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" s="22"/>
-      <c r="B271" s="23"/>
-      <c r="C271" s="23"/>
-      <c r="D271" s="29"/>
+      <c r="A271" s="19"/>
+      <c r="B271" s="20"/>
+      <c r="C271" s="20"/>
+      <c r="D271" s="22"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" s="22"/>
-      <c r="B272" s="23"/>
-      <c r="C272" s="23"/>
-      <c r="D272" s="29"/>
+      <c r="A272" s="19"/>
+      <c r="B272" s="20"/>
+      <c r="C272" s="20"/>
+      <c r="D272" s="22"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" s="22"/>
-      <c r="B273" s="23"/>
-      <c r="C273" s="23"/>
-      <c r="D273" s="29"/>
+      <c r="A273" s="19"/>
+      <c r="B273" s="20"/>
+      <c r="C273" s="20"/>
+      <c r="D273" s="22"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" s="22"/>
-      <c r="B274" s="23"/>
-      <c r="C274" s="23"/>
-      <c r="D274" s="29"/>
+      <c r="A274" s="19"/>
+      <c r="B274" s="20"/>
+      <c r="C274" s="20"/>
+      <c r="D274" s="22"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" s="22"/>
-      <c r="B275" s="23"/>
-      <c r="C275" s="23"/>
-      <c r="D275" s="29"/>
+      <c r="A275" s="19"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
+      <c r="D275" s="22"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" s="22"/>
-      <c r="B276" s="23"/>
-      <c r="C276" s="23"/>
-      <c r="D276" s="29"/>
+      <c r="A276" s="19"/>
+      <c r="B276" s="20"/>
+      <c r="C276" s="20"/>
+      <c r="D276" s="22"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" s="22"/>
-      <c r="B277" s="23"/>
-      <c r="C277" s="23"/>
-      <c r="D277" s="29"/>
+      <c r="A277" s="19"/>
+      <c r="B277" s="20"/>
+      <c r="C277" s="20"/>
+      <c r="D277" s="22"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" s="22"/>
-      <c r="B278" s="23"/>
-      <c r="C278" s="23"/>
-      <c r="D278" s="29"/>
+      <c r="A278" s="19"/>
+      <c r="B278" s="20"/>
+      <c r="C278" s="20"/>
+      <c r="D278" s="22"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" s="22"/>
-      <c r="B279" s="23"/>
-      <c r="C279" s="23"/>
-      <c r="D279" s="29"/>
+      <c r="A279" s="19"/>
+      <c r="B279" s="20"/>
+      <c r="C279" s="20"/>
+      <c r="D279" s="22"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" s="22"/>
-      <c r="B280" s="23"/>
-      <c r="C280" s="23"/>
-      <c r="D280" s="29"/>
+      <c r="A280" s="19"/>
+      <c r="B280" s="20"/>
+      <c r="C280" s="20"/>
+      <c r="D280" s="22"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" s="22"/>
-      <c r="B281" s="23"/>
-      <c r="C281" s="23"/>
-      <c r="D281" s="29"/>
+      <c r="A281" s="19"/>
+      <c r="B281" s="20"/>
+      <c r="C281" s="20"/>
+      <c r="D281" s="22"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" s="22"/>
-      <c r="B282" s="23"/>
-      <c r="C282" s="23"/>
-      <c r="D282" s="29"/>
+      <c r="A282" s="19"/>
+      <c r="B282" s="20"/>
+      <c r="C282" s="20"/>
+      <c r="D282" s="22"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" s="22"/>
-      <c r="B283" s="23"/>
-      <c r="C283" s="23"/>
-      <c r="D283" s="29"/>
+      <c r="A283" s="19"/>
+      <c r="B283" s="20"/>
+      <c r="C283" s="20"/>
+      <c r="D283" s="22"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" s="22"/>
-      <c r="B284" s="23"/>
-      <c r="C284" s="23"/>
-      <c r="D284" s="29"/>
+      <c r="A284" s="19"/>
+      <c r="B284" s="20"/>
+      <c r="C284" s="20"/>
+      <c r="D284" s="22"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285" s="22"/>
-      <c r="B285" s="23"/>
-      <c r="C285" s="23"/>
-      <c r="D285" s="29"/>
+      <c r="A285" s="19"/>
+      <c r="B285" s="20"/>
+      <c r="C285" s="20"/>
+      <c r="D285" s="22"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A286" s="22"/>
-      <c r="B286" s="23"/>
-      <c r="C286" s="23"/>
-      <c r="D286" s="29"/>
+      <c r="A286" s="19"/>
+      <c r="B286" s="20"/>
+      <c r="C286" s="20"/>
+      <c r="D286" s="22"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287" s="22"/>
-      <c r="B287" s="23"/>
-      <c r="C287" s="23"/>
-      <c r="D287" s="29"/>
+      <c r="A287" s="19"/>
+      <c r="B287" s="20"/>
+      <c r="C287" s="20"/>
+      <c r="D287" s="22"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" s="22"/>
-      <c r="B288" s="23"/>
-      <c r="C288" s="23"/>
-      <c r="D288" s="29"/>
+      <c r="A288" s="19"/>
+      <c r="B288" s="20"/>
+      <c r="C288" s="20"/>
+      <c r="D288" s="22"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" s="22"/>
-      <c r="B289" s="23"/>
-      <c r="C289" s="23"/>
-      <c r="D289" s="29"/>
+      <c r="A289" s="19"/>
+      <c r="B289" s="20"/>
+      <c r="C289" s="20"/>
+      <c r="D289" s="22"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" s="22"/>
-      <c r="B290" s="23"/>
-      <c r="C290" s="23"/>
-      <c r="D290" s="29"/>
+      <c r="A290" s="19"/>
+      <c r="B290" s="20"/>
+      <c r="C290" s="20"/>
+      <c r="D290" s="22"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" s="22"/>
-      <c r="B291" s="23"/>
-      <c r="C291" s="23"/>
-      <c r="D291" s="29"/>
+      <c r="A291" s="19"/>
+      <c r="B291" s="20"/>
+      <c r="C291" s="20"/>
+      <c r="D291" s="22"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A292" s="22"/>
-      <c r="B292" s="23"/>
-      <c r="C292" s="23"/>
-      <c r="D292" s="29"/>
+      <c r="A292" s="19"/>
+      <c r="B292" s="20"/>
+      <c r="C292" s="20"/>
+      <c r="D292" s="22"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" s="22"/>
-      <c r="B293" s="23"/>
-      <c r="C293" s="23"/>
-      <c r="D293" s="29"/>
+      <c r="A293" s="19"/>
+      <c r="B293" s="20"/>
+      <c r="C293" s="20"/>
+      <c r="D293" s="22"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" s="22"/>
-      <c r="B294" s="23"/>
-      <c r="C294" s="23"/>
-      <c r="D294" s="29"/>
+      <c r="A294" s="19"/>
+      <c r="B294" s="20"/>
+      <c r="C294" s="20"/>
+      <c r="D294" s="22"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" s="22"/>
-      <c r="B295" s="23"/>
-      <c r="C295" s="23"/>
-      <c r="D295" s="29"/>
+      <c r="A295" s="19"/>
+      <c r="B295" s="20"/>
+      <c r="C295" s="20"/>
+      <c r="D295" s="22"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" s="22"/>
-      <c r="B296" s="23"/>
-      <c r="C296" s="23"/>
-      <c r="D296" s="29"/>
+      <c r="A296" s="19"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
+      <c r="D296" s="22"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" s="22"/>
-      <c r="B297" s="23"/>
-      <c r="C297" s="23"/>
-      <c r="D297" s="29"/>
+      <c r="A297" s="19"/>
+      <c r="B297" s="20"/>
+      <c r="C297" s="20"/>
+      <c r="D297" s="22"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298" s="22"/>
-      <c r="B298" s="23"/>
-      <c r="C298" s="23"/>
-      <c r="D298" s="29"/>
+      <c r="A298" s="19"/>
+      <c r="B298" s="20"/>
+      <c r="C298" s="20"/>
+      <c r="D298" s="22"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" s="22"/>
-      <c r="B299" s="23"/>
-      <c r="C299" s="23"/>
-      <c r="D299" s="29"/>
+      <c r="A299" s="19"/>
+      <c r="B299" s="20"/>
+      <c r="C299" s="20"/>
+      <c r="D299" s="22"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300" s="22"/>
-      <c r="B300" s="23"/>
-      <c r="C300" s="23"/>
-      <c r="D300" s="29"/>
+      <c r="A300" s="19"/>
+      <c r="B300" s="20"/>
+      <c r="C300" s="20"/>
+      <c r="D300" s="22"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301" s="22"/>
-      <c r="B301" s="23"/>
-      <c r="C301" s="23"/>
-      <c r="D301" s="29"/>
+      <c r="A301" s="19"/>
+      <c r="B301" s="20"/>
+      <c r="C301" s="20"/>
+      <c r="D301" s="22"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A302" s="22"/>
-      <c r="B302" s="23"/>
-      <c r="C302" s="23"/>
-      <c r="D302" s="29"/>
+      <c r="A302" s="19"/>
+      <c r="B302" s="20"/>
+      <c r="C302" s="20"/>
+      <c r="D302" s="22"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303" s="22"/>
-      <c r="B303" s="23"/>
-      <c r="C303" s="23"/>
-      <c r="D303" s="29"/>
+      <c r="A303" s="19"/>
+      <c r="B303" s="20"/>
+      <c r="C303" s="20"/>
+      <c r="D303" s="22"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" s="22"/>
-      <c r="B304" s="23"/>
-      <c r="C304" s="23"/>
-      <c r="D304" s="29"/>
+      <c r="A304" s="19"/>
+      <c r="B304" s="20"/>
+      <c r="C304" s="20"/>
+      <c r="D304" s="22"/>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305" s="22"/>
-      <c r="B305" s="23"/>
-      <c r="C305" s="23"/>
-      <c r="D305" s="29"/>
+      <c r="A305" s="19"/>
+      <c r="B305" s="20"/>
+      <c r="C305" s="20"/>
+      <c r="D305" s="22"/>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A306" s="22"/>
-      <c r="B306" s="23"/>
-      <c r="C306" s="23"/>
-      <c r="D306" s="29"/>
+      <c r="A306" s="19"/>
+      <c r="B306" s="20"/>
+      <c r="C306" s="20"/>
+      <c r="D306" s="22"/>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A307" s="22"/>
-      <c r="B307" s="23"/>
-      <c r="C307" s="23"/>
-      <c r="D307" s="29"/>
+      <c r="A307" s="19"/>
+      <c r="B307" s="20"/>
+      <c r="C307" s="20"/>
+      <c r="D307" s="22"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A308" s="22"/>
-      <c r="B308" s="23"/>
-      <c r="C308" s="23"/>
-      <c r="D308" s="29"/>
+      <c r="A308" s="19"/>
+      <c r="B308" s="20"/>
+      <c r="C308" s="20"/>
+      <c r="D308" s="22"/>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A309" s="22"/>
-      <c r="B309" s="23"/>
-      <c r="C309" s="23"/>
-      <c r="D309" s="29"/>
+      <c r="A309" s="19"/>
+      <c r="B309" s="20"/>
+      <c r="C309" s="20"/>
+      <c r="D309" s="22"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310" s="22"/>
-      <c r="B310" s="23"/>
-      <c r="C310" s="23"/>
-      <c r="D310" s="29"/>
+      <c r="A310" s="19"/>
+      <c r="B310" s="20"/>
+      <c r="C310" s="20"/>
+      <c r="D310" s="22"/>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A311" s="22"/>
-      <c r="B311" s="23"/>
-      <c r="C311" s="23"/>
-      <c r="D311" s="29"/>
+      <c r="A311" s="19"/>
+      <c r="B311" s="20"/>
+      <c r="C311" s="20"/>
+      <c r="D311" s="22"/>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312" s="22"/>
-      <c r="B312" s="23"/>
-      <c r="C312" s="23"/>
-      <c r="D312" s="29"/>
+      <c r="A312" s="19"/>
+      <c r="B312" s="20"/>
+      <c r="C312" s="20"/>
+      <c r="D312" s="22"/>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A313" s="22"/>
-      <c r="B313" s="23"/>
-      <c r="C313" s="23"/>
-      <c r="D313" s="29"/>
+      <c r="A313" s="19"/>
+      <c r="B313" s="20"/>
+      <c r="C313" s="20"/>
+      <c r="D313" s="22"/>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A314" s="22"/>
-      <c r="B314" s="23"/>
-      <c r="C314" s="23"/>
-      <c r="D314" s="29"/>
+      <c r="A314" s="19"/>
+      <c r="B314" s="20"/>
+      <c r="C314" s="20"/>
+      <c r="D314" s="22"/>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A315" s="22"/>
-      <c r="B315" s="23"/>
-      <c r="C315" s="23"/>
-      <c r="D315" s="29"/>
+      <c r="A315" s="19"/>
+      <c r="B315" s="20"/>
+      <c r="C315" s="20"/>
+      <c r="D315" s="22"/>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A316" s="22"/>
-      <c r="B316" s="23"/>
-      <c r="C316" s="23"/>
-      <c r="D316" s="29"/>
+      <c r="A316" s="19"/>
+      <c r="B316" s="20"/>
+      <c r="C316" s="20"/>
+      <c r="D316" s="22"/>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A317" s="22"/>
-      <c r="B317" s="23"/>
-      <c r="C317" s="23"/>
-      <c r="D317" s="29"/>
+      <c r="A317" s="19"/>
+      <c r="B317" s="20"/>
+      <c r="C317" s="20"/>
+      <c r="D317" s="22"/>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A318" s="22"/>
-      <c r="B318" s="23"/>
-      <c r="C318" s="23"/>
-      <c r="D318" s="29"/>
+      <c r="A318" s="19"/>
+      <c r="B318" s="20"/>
+      <c r="C318" s="20"/>
+      <c r="D318" s="22"/>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A319" s="22"/>
-      <c r="B319" s="23"/>
-      <c r="C319" s="23"/>
-      <c r="D319" s="29"/>
+      <c r="A319" s="19"/>
+      <c r="B319" s="20"/>
+      <c r="C319" s="20"/>
+      <c r="D319" s="22"/>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A320" s="22"/>
-      <c r="B320" s="23"/>
-      <c r="C320" s="23"/>
-      <c r="D320" s="29"/>
+      <c r="A320" s="19"/>
+      <c r="B320" s="20"/>
+      <c r="C320" s="20"/>
+      <c r="D320" s="22"/>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321" s="22"/>
-      <c r="B321" s="23"/>
-      <c r="C321" s="23"/>
-      <c r="D321" s="29"/>
+      <c r="A321" s="19"/>
+      <c r="B321" s="20"/>
+      <c r="C321" s="20"/>
+      <c r="D321" s="22"/>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322" s="22"/>
-      <c r="B322" s="23"/>
-      <c r="C322" s="23"/>
-      <c r="D322" s="29"/>
+      <c r="A322" s="19"/>
+      <c r="B322" s="20"/>
+      <c r="C322" s="20"/>
+      <c r="D322" s="22"/>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323" s="22"/>
-      <c r="B323" s="23"/>
-      <c r="C323" s="23"/>
-      <c r="D323" s="29"/>
+      <c r="A323" s="19"/>
+      <c r="B323" s="20"/>
+      <c r="C323" s="20"/>
+      <c r="D323" s="22"/>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324" s="22"/>
-      <c r="B324" s="23"/>
-      <c r="C324" s="23"/>
-      <c r="D324" s="29"/>
+      <c r="A324" s="19"/>
+      <c r="B324" s="20"/>
+      <c r="C324" s="20"/>
+      <c r="D324" s="22"/>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325" s="22"/>
-      <c r="B325" s="23"/>
-      <c r="C325" s="23"/>
-      <c r="D325" s="29"/>
+      <c r="A325" s="19"/>
+      <c r="B325" s="20"/>
+      <c r="C325" s="20"/>
+      <c r="D325" s="22"/>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326" s="22"/>
-      <c r="B326" s="23"/>
-      <c r="C326" s="23"/>
-      <c r="D326" s="29"/>
+      <c r="A326" s="19"/>
+      <c r="B326" s="20"/>
+      <c r="C326" s="20"/>
+      <c r="D326" s="22"/>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327" s="22"/>
-      <c r="B327" s="23"/>
-      <c r="C327" s="23"/>
-      <c r="D327" s="29"/>
+      <c r="A327" s="19"/>
+      <c r="B327" s="20"/>
+      <c r="C327" s="20"/>
+      <c r="D327" s="22"/>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328" s="22"/>
-      <c r="B328" s="23"/>
-      <c r="C328" s="23"/>
-      <c r="D328" s="29"/>
+      <c r="A328" s="19"/>
+      <c r="B328" s="20"/>
+      <c r="C328" s="20"/>
+      <c r="D328" s="22"/>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329" s="22"/>
-      <c r="B329" s="23"/>
-      <c r="C329" s="23"/>
-      <c r="D329" s="29"/>
+      <c r="A329" s="19"/>
+      <c r="B329" s="20"/>
+      <c r="C329" s="20"/>
+      <c r="D329" s="22"/>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330" s="22"/>
-      <c r="B330" s="23"/>
-      <c r="C330" s="23"/>
-      <c r="D330" s="29"/>
+      <c r="A330" s="19"/>
+      <c r="B330" s="20"/>
+      <c r="C330" s="20"/>
+      <c r="D330" s="22"/>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A331" s="22"/>
-      <c r="B331" s="23"/>
-      <c r="C331" s="23"/>
-      <c r="D331" s="29"/>
+      <c r="A331" s="19"/>
+      <c r="B331" s="20"/>
+      <c r="C331" s="20"/>
+      <c r="D331" s="22"/>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A332" s="22"/>
-      <c r="B332" s="23"/>
-      <c r="C332" s="23"/>
-      <c r="D332" s="29"/>
+      <c r="A332" s="19"/>
+      <c r="B332" s="20"/>
+      <c r="C332" s="20"/>
+      <c r="D332" s="22"/>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A333" s="22"/>
-      <c r="B333" s="23"/>
-      <c r="C333" s="23"/>
-      <c r="D333" s="29"/>
+      <c r="A333" s="19"/>
+      <c r="B333" s="20"/>
+      <c r="C333" s="20"/>
+      <c r="D333" s="22"/>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A334" s="22"/>
-      <c r="B334" s="23"/>
-      <c r="C334" s="23"/>
-      <c r="D334" s="29"/>
+      <c r="A334" s="19"/>
+      <c r="B334" s="20"/>
+      <c r="C334" s="20"/>
+      <c r="D334" s="22"/>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A335" s="22"/>
-      <c r="B335" s="23"/>
-      <c r="C335" s="23"/>
-      <c r="D335" s="29"/>
+      <c r="A335" s="19"/>
+      <c r="B335" s="20"/>
+      <c r="C335" s="20"/>
+      <c r="D335" s="22"/>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A336" s="22"/>
-      <c r="B336" s="23"/>
-      <c r="C336" s="23"/>
-      <c r="D336" s="29"/>
+      <c r="A336" s="19"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
+      <c r="D336" s="22"/>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337" s="22"/>
-      <c r="B337" s="23"/>
-      <c r="C337" s="23"/>
-      <c r="D337" s="29"/>
+      <c r="A337" s="19"/>
+      <c r="B337" s="20"/>
+      <c r="C337" s="20"/>
+      <c r="D337" s="22"/>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" s="22"/>
-      <c r="B338" s="23"/>
-      <c r="C338" s="23"/>
-      <c r="D338" s="29"/>
+      <c r="A338" s="19"/>
+      <c r="B338" s="20"/>
+      <c r="C338" s="20"/>
+      <c r="D338" s="22"/>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" s="22"/>
-      <c r="B339" s="23"/>
-      <c r="C339" s="23"/>
-      <c r="D339" s="29"/>
+      <c r="A339" s="19"/>
+      <c r="B339" s="20"/>
+      <c r="C339" s="20"/>
+      <c r="D339" s="22"/>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" s="22"/>
-      <c r="B340" s="23"/>
-      <c r="C340" s="23"/>
-      <c r="D340" s="29"/>
+      <c r="A340" s="19"/>
+      <c r="B340" s="20"/>
+      <c r="C340" s="20"/>
+      <c r="D340" s="22"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341" s="22"/>
-      <c r="B341" s="23"/>
-      <c r="C341" s="23"/>
-      <c r="D341" s="29"/>
+      <c r="A341" s="19"/>
+      <c r="B341" s="20"/>
+      <c r="C341" s="20"/>
+      <c r="D341" s="22"/>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" s="22"/>
-      <c r="B342" s="23"/>
-      <c r="C342" s="23"/>
-      <c r="D342" s="29"/>
+      <c r="A342" s="19"/>
+      <c r="B342" s="20"/>
+      <c r="C342" s="20"/>
+      <c r="D342" s="22"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343" s="22"/>
-      <c r="B343" s="23"/>
-      <c r="C343" s="23"/>
-      <c r="D343" s="29"/>
+      <c r="A343" s="19"/>
+      <c r="B343" s="20"/>
+      <c r="C343" s="20"/>
+      <c r="D343" s="22"/>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" s="22"/>
-      <c r="B344" s="23"/>
-      <c r="C344" s="23"/>
-      <c r="D344" s="29"/>
+      <c r="A344" s="19"/>
+      <c r="B344" s="20"/>
+      <c r="C344" s="20"/>
+      <c r="D344" s="22"/>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" s="22"/>
-      <c r="B345" s="23"/>
-      <c r="C345" s="23"/>
-      <c r="D345" s="29"/>
+      <c r="A345" s="19"/>
+      <c r="B345" s="20"/>
+      <c r="C345" s="20"/>
+      <c r="D345" s="22"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" s="22"/>
-      <c r="B346" s="23"/>
-      <c r="C346" s="23"/>
-      <c r="D346" s="29"/>
+      <c r="A346" s="19"/>
+      <c r="B346" s="20"/>
+      <c r="C346" s="20"/>
+      <c r="D346" s="22"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" s="22"/>
-      <c r="B347" s="23"/>
-      <c r="C347" s="23"/>
-      <c r="D347" s="29"/>
+      <c r="A347" s="19"/>
+      <c r="B347" s="20"/>
+      <c r="C347" s="20"/>
+      <c r="D347" s="22"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="22"/>
-      <c r="B348" s="23"/>
-      <c r="C348" s="23"/>
-      <c r="D348" s="29"/>
+      <c r="A348" s="19"/>
+      <c r="B348" s="20"/>
+      <c r="C348" s="20"/>
+      <c r="D348" s="22"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="22"/>
-      <c r="B349" s="23"/>
-      <c r="C349" s="23"/>
-      <c r="D349" s="29"/>
+      <c r="A349" s="19"/>
+      <c r="B349" s="20"/>
+      <c r="C349" s="20"/>
+      <c r="D349" s="22"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" s="22"/>
-      <c r="B350" s="23"/>
-      <c r="C350" s="23"/>
-      <c r="D350" s="29"/>
+      <c r="A350" s="19"/>
+      <c r="B350" s="20"/>
+      <c r="C350" s="20"/>
+      <c r="D350" s="22"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351" s="22"/>
-      <c r="B351" s="23"/>
-      <c r="C351" s="23"/>
-      <c r="D351" s="29"/>
+      <c r="A351" s="19"/>
+      <c r="B351" s="20"/>
+      <c r="C351" s="20"/>
+      <c r="D351" s="22"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" s="22"/>
-      <c r="B352" s="23"/>
-      <c r="C352" s="23"/>
-      <c r="D352" s="29"/>
+      <c r="A352" s="19"/>
+      <c r="B352" s="20"/>
+      <c r="C352" s="20"/>
+      <c r="D352" s="22"/>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353" s="22"/>
-      <c r="B353" s="23"/>
-      <c r="C353" s="23"/>
-      <c r="D353" s="29"/>
+      <c r="A353" s="19"/>
+      <c r="B353" s="20"/>
+      <c r="C353" s="20"/>
+      <c r="D353" s="22"/>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354" s="22"/>
-      <c r="B354" s="23"/>
-      <c r="C354" s="23"/>
-      <c r="D354" s="29"/>
+      <c r="A354" s="19"/>
+      <c r="B354" s="20"/>
+      <c r="C354" s="20"/>
+      <c r="D354" s="22"/>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" s="19"/>
+      <c r="B355" s="20"/>
+      <c r="C355" s="20"/>
+      <c r="D355" s="22"/>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" s="19"/>
+      <c r="B356" s="20"/>
+      <c r="C356" s="20"/>
+      <c r="D356" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6398,6 +6483,6 @@
     <mergeCell ref="C22:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" scale="71" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="71" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/O2S MedicalRecord/Documents/BIEN_BC_O2S_MedicalRecord.xlsx
+++ b/O2S MedicalRecord/Documents/BIEN_BC_O2S_MedicalRecord.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HongNhat\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalRecord\trunk\O2S MedicalRecord\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12615" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12615" windowHeight="7020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MergeField" sheetId="1" r:id="rId1"/>
-    <sheet name="Danh sach_bien" sheetId="3" r:id="rId2"/>
+    <sheet name="Field_HoiChan" sheetId="4" r:id="rId2"/>
+    <sheet name="Danh sach_bien" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="439">
   <si>
     <t>SOYTE</t>
   </si>
@@ -1234,6 +1235,114 @@
   </si>
   <si>
     <t>Thời gian ra viện - date</t>
+  </si>
+  <si>
+    <t>TVTG_CHUTOA_TEN</t>
+  </si>
+  <si>
+    <t>TVTG_CHUTOA_CDCV</t>
+  </si>
+  <si>
+    <t>TVTG_THUKY_TEN</t>
+  </si>
+  <si>
+    <t>TVTG_THUKY_CDCV</t>
+  </si>
+  <si>
+    <t>TVTG_THANHVIEN1_TEN</t>
+  </si>
+  <si>
+    <t>TVTG_THANHVIEN1_CDCV</t>
+  </si>
+  <si>
+    <t>TVTG_THANHVIEN2_TEN</t>
+  </si>
+  <si>
+    <t>TVTG_THANHVIEN2_CDCV</t>
+  </si>
+  <si>
+    <t>TVTG_THANHVIEN3_TEN</t>
+  </si>
+  <si>
+    <t>TVTG_THANHVIEN3_CDCV</t>
+  </si>
+  <si>
+    <t>TVTG_THANHVIEN4_TEN</t>
+  </si>
+  <si>
+    <t>TVTG_THANHVIEN4_CDCV</t>
+  </si>
+  <si>
+    <t>TVTG_THANHVIEN5_TEN</t>
+  </si>
+  <si>
+    <t>TVTG_THANHVIEN5_CDCV</t>
+  </si>
+  <si>
+    <t>TVTG_THANHVIEN6_TEN</t>
+  </si>
+  <si>
+    <t>TVTG_THANHVIEN6_CDCV</t>
+  </si>
+  <si>
+    <t>DIADIEMHOICHAN</t>
+  </si>
+  <si>
+    <t>TUOI</t>
+  </si>
+  <si>
+    <t>GIOITINH</t>
+  </si>
+  <si>
+    <t>NGAY_NOICAP</t>
+  </si>
+  <si>
+    <t>KHOA</t>
+  </si>
+  <si>
+    <t>YEUCAUHOICHAN</t>
+  </si>
+  <si>
+    <t>DBB_TOMTATTIENSUBENH</t>
+  </si>
+  <si>
+    <t>DBB_TINHTRANGLUCVAOVIEN</t>
+  </si>
+  <si>
+    <t>DBB_CHANDOANTUYENDUOI</t>
+  </si>
+  <si>
+    <t>DBB_TOMTATDIENBIENBENH</t>
+  </si>
+  <si>
+    <t>YK_CHANDOANTIENLUONG</t>
+  </si>
+  <si>
+    <t>YK_PHUONGPHAPDIEUTRI</t>
+  </si>
+  <si>
+    <t>YK_CHAMSOC</t>
+  </si>
+  <si>
+    <t>KL_KETLUAN</t>
+  </si>
+  <si>
+    <t>HOICHAN_FULLTIME2</t>
+  </si>
+  <si>
+    <t>HOICHAN_FULLTIME1</t>
+  </si>
+  <si>
+    <t>BUONG</t>
+  </si>
+  <si>
+    <t>TG_VAOVIEN_FULLTIME1</t>
+  </si>
+  <si>
+    <t>TG_RAVIEN_FULLTIME1</t>
+  </si>
+  <si>
+    <t>TG_VAOVIEN_FULLTIME2</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1459,6 +1568,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1480,14 +1600,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1771,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BR1" workbookViewId="0">
-      <selection activeCell="BY3" sqref="BY3"/>
+    <sheetView topLeftCell="BR1" workbookViewId="0">
+      <selection activeCell="BV10" sqref="BV10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3137,10 +3249,204 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BF1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AM1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR10" sqref="AR10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="20.25" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:58" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="W1" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="X1" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y1" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="Z1" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="AA1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD1" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="AF1" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG1" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH1" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI1" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ1" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="AK1" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="AL1" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM1" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO1" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP1" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ1" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="AR1" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="AS1" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="AT1" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="AU1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV1" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="AW1" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="AX1" s="28" t="s">
+        <v>425</v>
+      </c>
+      <c r="AY1" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="AZ1" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="BA1" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="BB1" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="BC1" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="BD1" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="BE1" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="BF1" s="28" t="s">
+        <v>347</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F356"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+    <sheetView topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3154,20 +3460,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="34" t="s">
         <v>281</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="34"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
     </row>
     <row r="6" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
@@ -3285,7 +3591,7 @@
       <c r="B17" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="29" t="s">
         <v>293</v>
       </c>
     </row>
@@ -3296,7 +3602,7 @@
       <c r="B18" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="29"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
@@ -3305,7 +3611,7 @@
       <c r="B19" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="C19" s="24"/>
+      <c r="C19" s="29"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
@@ -3314,7 +3620,7 @@
       <c r="B20" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="C20" s="24"/>
+      <c r="C20" s="29"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
@@ -3323,7 +3629,7 @@
       <c r="B21" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="C21" s="24"/>
+      <c r="C21" s="29"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
@@ -3332,7 +3638,7 @@
       <c r="B22" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="29" t="s">
         <v>294</v>
       </c>
     </row>
@@ -3343,7 +3649,7 @@
       <c r="B23" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="C23" s="24"/>
+      <c r="C23" s="29"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
@@ -3352,7 +3658,7 @@
       <c r="B24" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="C24" s="24"/>
+      <c r="C24" s="29"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
@@ -3361,7 +3667,7 @@
       <c r="B25" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="C25" s="24"/>
+      <c r="C25" s="29"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
@@ -3370,7 +3676,7 @@
       <c r="B26" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="C26" s="24"/>
+      <c r="C26" s="29"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
@@ -3467,7 +3773,7 @@
       <c r="B35" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="29" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3478,7 +3784,7 @@
       <c r="B36" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="C36" s="24"/>
+      <c r="C36" s="29"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
@@ -3487,7 +3793,7 @@
       <c r="B37" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="C37" s="24"/>
+      <c r="C37" s="29"/>
     </row>
     <row r="40" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
@@ -3534,7 +3840,7 @@
       <c r="B45" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="30" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3545,7 +3851,7 @@
       <c r="B46" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="C46" s="26"/>
+      <c r="C46" s="31"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
@@ -3554,7 +3860,7 @@
       <c r="B47" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="C47" s="26"/>
+      <c r="C47" s="31"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
@@ -3563,7 +3869,7 @@
       <c r="B48" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="C48" s="26"/>
+      <c r="C48" s="31"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
@@ -3572,7 +3878,7 @@
       <c r="B49" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="C49" s="27"/>
+      <c r="C49" s="32"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
@@ -3779,7 +4085,7 @@
       <c r="B68" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="30" t="s">
         <v>322</v>
       </c>
     </row>
@@ -3790,7 +4096,7 @@
       <c r="B69" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="C69" s="26"/>
+      <c r="C69" s="31"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
@@ -3799,7 +4105,7 @@
       <c r="B70" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="C70" s="26"/>
+      <c r="C70" s="31"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
@@ -3808,7 +4114,7 @@
       <c r="B71" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="C71" s="26"/>
+      <c r="C71" s="31"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
@@ -3817,7 +4123,7 @@
       <c r="B72" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="C72" s="27"/>
+      <c r="C72" s="32"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
@@ -4644,44 +4950,44 @@
       <c r="D147" s="22"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="31">
+      <c r="A148" s="24">
         <v>57</v>
       </c>
-      <c r="B148" s="32" t="s">
+      <c r="B148" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C148" s="32" t="s">
+      <c r="C148" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="D148" s="33" t="s">
+      <c r="D148" s="26" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="31">
+      <c r="A149" s="24">
         <v>58</v>
       </c>
-      <c r="B149" s="32" t="s">
+      <c r="B149" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C149" s="32" t="s">
+      <c r="C149" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="D149" s="33" t="s">
+      <c r="D149" s="26" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="31">
+      <c r="A150" s="24">
         <v>59</v>
       </c>
-      <c r="B150" s="32" t="s">
+      <c r="B150" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="C150" s="32" t="s">
+      <c r="C150" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="D150" s="33" t="s">
+      <c r="D150" s="26" t="s">
         <v>398</v>
       </c>
     </row>
@@ -4897,31 +5203,31 @@
       </c>
       <c r="D166" s="22"/>
     </row>
-    <row r="167" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="31">
+    <row r="167" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="24">
         <v>76</v>
       </c>
-      <c r="B167" s="32" t="s">
+      <c r="B167" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C167" s="32" t="s">
+      <c r="C167" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="D167" s="33" t="s">
+      <c r="D167" s="26" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="168" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="31">
+    <row r="168" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="24">
         <v>77</v>
       </c>
-      <c r="B168" s="32" t="s">
+      <c r="B168" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="C168" s="32" t="s">
+      <c r="C168" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="D168" s="33" t="s">
+      <c r="D168" s="26" t="s">
         <v>401</v>
       </c>
     </row>
